--- a/NEW HR/OBINA, APOLINARIO.xlsx
+++ b/NEW HR/OBINA, APOLINARIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>2/10,11,13-18,21-25,27,28, 3/1-4,6/23</t>
+  </si>
+  <si>
+    <t>3/7-10,13-17,20-24/2023</t>
   </si>
 </sst>
 </file>
@@ -632,20 +635,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -656,6 +659,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,9 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,9 +1551,9 @@
   <dimension ref="A2:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A57" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,34 +1575,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -1611,21 +1614,21 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1651,18 +1654,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1709,7 +1712,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1719,7 +1722,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>49.5</v>
+        <v>36.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3113,25 +3116,35 @@
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="61" t="s">
+      <c r="K77" s="50" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="39"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="39">
+        <v>14</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
@@ -3823,17 +3836,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3893,34 +3906,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -3932,21 +3945,21 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3972,18 +3985,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4353,7 +4366,7 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="61"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
@@ -5138,17 +5151,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -5227,12 +5240,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/NEW HR/OBINA, APOLINARIO.xlsx
+++ b/NEW HR/OBINA, APOLINARIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>3/7-10,13-17,20-24/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>5/22-26/2023</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1559,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1718,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1722,7 +1728,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>36.75</v>
+        <v>39.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3147,15 +3153,19 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -3163,15 +3173,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -3179,10 +3193,16 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>5</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -3192,7 +3212,9 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
@@ -3882,9 +3904,9 @@
   <dimension ref="A2:K70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A5" activePane="bottomLeft"/>
-      <selection activeCell="C60" sqref="C60"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <pane ySplit="3690" topLeftCell="A11" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,7 +4339,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="48" t="s">
+        <v>66</v>
+      </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -4330,7 +4354,9 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="40">
+        <v>45079</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>

--- a/NEW HR/OBINA, APOLINARIO.xlsx
+++ b/NEW HR/OBINA, APOLINARIO.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>5/22-26/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/10-12/2023</t>
   </si>
 </sst>
 </file>
@@ -647,14 +656,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -664,9 +676,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1557,9 +1566,9 @@
   <dimension ref="A2:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,14 +1598,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1607,14 +1616,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1627,14 +1636,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1660,18 +1669,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1718,7 +1727,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>56.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1728,7 +1737,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>39.25</v>
+        <v>40.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3199,15 +3208,17 @@
       <c r="B81" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39">
         <v>5</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -3217,10 +3228,16 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>1</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
@@ -3230,11 +3247,15 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="49">
+        <v>45121</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -3246,7 +3267,9 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
@@ -3262,7 +3285,7 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="49"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
@@ -3858,17 +3881,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3936,14 +3959,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3954,14 +3977,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3974,14 +3997,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4007,18 +4030,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/OBINA, APOLINARIO.xlsx
+++ b/NEW HR/OBINA, APOLINARIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>7/10-12/2023</t>
+  </si>
+  <si>
+    <t>7/24-28/2023</t>
   </si>
 </sst>
 </file>
@@ -656,17 +659,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -676,6 +676,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,9 +1569,9 @@
   <dimension ref="A2:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,14 +1601,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1616,14 +1619,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1636,14 +1639,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1669,18 +1672,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1727,7 +1730,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.5</v>
+        <v>51.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3273,9 +3276,13 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>5</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -3285,7 +3292,9 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="49"/>
+      <c r="K84" s="49" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
@@ -3881,17 +3890,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3959,14 +3968,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3977,14 +3986,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3997,14 +4006,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4030,18 +4039,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/OBINA, APOLINARIO.xlsx
+++ b/NEW HR/OBINA, APOLINARIO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>7/24-28/2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>8/15-18/2023</t>
   </si>
 </sst>
 </file>
@@ -659,14 +665,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -676,9 +685,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1568,10 +1574,10 @@
   </sheetPr>
   <dimension ref="A2:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,14 +1607,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1619,14 +1625,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1639,14 +1645,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1672,18 +1678,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1730,7 +1736,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.5</v>
+        <v>48.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1740,7 +1746,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>40.5</v>
+        <v>41.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3237,15 +3243,17 @@
       <c r="B82" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39">
         <v>1</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -3297,10 +3305,16 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="D85" s="39">
+        <v>4</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
@@ -3310,7 +3324,9 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
@@ -3890,17 +3906,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3935,7 +3951,7 @@
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
@@ -3968,14 +3984,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3986,14 +4002,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4006,14 +4022,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4039,18 +4055,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
